--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H2">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I2">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J2">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10966480581332</v>
+        <v>1.162471666666667</v>
       </c>
       <c r="N2">
-        <v>1.10966480581332</v>
+        <v>3.487415</v>
       </c>
       <c r="O2">
-        <v>0.06071456844881905</v>
+        <v>0.05948594836865682</v>
       </c>
       <c r="P2">
-        <v>0.06071456844881905</v>
+        <v>0.05948594836865682</v>
       </c>
       <c r="Q2">
-        <v>88.96302711418519</v>
+        <v>164.73163956245</v>
       </c>
       <c r="R2">
-        <v>88.96302711418519</v>
+        <v>1482.58475606205</v>
       </c>
       <c r="S2">
-        <v>0.01886598524478595</v>
+        <v>0.02540441300331974</v>
       </c>
       <c r="T2">
-        <v>0.01886598524478595</v>
+        <v>0.02540441300331975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H3">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I3">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J3">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.23817416087097</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N3">
-        <v>5.23817416087097</v>
+        <v>16.081472</v>
       </c>
       <c r="O3">
-        <v>0.2866031994264571</v>
+        <v>0.2743067897236206</v>
       </c>
       <c r="P3">
-        <v>0.2866031994264571</v>
+        <v>0.2743067897236206</v>
       </c>
       <c r="Q3">
-        <v>419.9500853420637</v>
+        <v>759.62489383616</v>
       </c>
       <c r="R3">
-        <v>419.9500853420637</v>
+        <v>6836.624044525441</v>
       </c>
       <c r="S3">
-        <v>0.08905690791570071</v>
+        <v>0.117147043408749</v>
       </c>
       <c r="T3">
-        <v>0.08905690791570071</v>
+        <v>0.117147043408749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H4">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I4">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J4">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.334090319000011</v>
+        <v>0.4960333333333334</v>
       </c>
       <c r="N4">
-        <v>0.334090319000011</v>
+        <v>1.4881</v>
       </c>
       <c r="O4">
-        <v>0.01827952858804678</v>
+        <v>0.02538299564789342</v>
       </c>
       <c r="P4">
-        <v>0.01827952858804678</v>
+        <v>0.02538299564789342</v>
       </c>
       <c r="Q4">
-        <v>26.78438205129925</v>
+        <v>70.29193624300001</v>
       </c>
       <c r="R4">
-        <v>26.78438205129925</v>
+        <v>632.6274261870001</v>
       </c>
       <c r="S4">
-        <v>0.005680042293546786</v>
+        <v>0.01084020886250708</v>
       </c>
       <c r="T4">
-        <v>0.005680042293546786</v>
+        <v>0.01084020886250708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>80.17108107612771</v>
+        <v>141.70809</v>
       </c>
       <c r="H5">
-        <v>80.17108107612771</v>
+        <v>425.12427</v>
       </c>
       <c r="I5">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J5">
-        <v>0.3107324275999678</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>11.5948176988346</v>
+        <v>0.1237266666666667</v>
       </c>
       <c r="N5">
-        <v>11.5948176988346</v>
+        <v>0.37118</v>
       </c>
       <c r="O5">
-        <v>0.634402703536677</v>
+        <v>0.006331335477847643</v>
       </c>
       <c r="P5">
-        <v>0.634402703536677</v>
+        <v>0.006331335477847643</v>
       </c>
       <c r="Q5">
-        <v>929.5690697961892</v>
+        <v>17.5330696154</v>
       </c>
       <c r="R5">
-        <v>929.5690697961892</v>
+        <v>157.7976265386</v>
       </c>
       <c r="S5">
-        <v>0.1971294921459343</v>
+        <v>0.002703896731123833</v>
       </c>
       <c r="T5">
-        <v>0.1971294921459343</v>
+        <v>0.002703896731123834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,60 +782,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.795702666781</v>
+        <v>141.70809</v>
       </c>
       <c r="H6">
-        <v>159.795702666781</v>
+        <v>425.12427</v>
       </c>
       <c r="I6">
-        <v>0.6193468510489718</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J6">
-        <v>0.6193468510489718</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.10966480581332</v>
+        <v>0.1821596666666666</v>
       </c>
       <c r="N6">
-        <v>1.10966480581332</v>
+        <v>0.5464789999999999</v>
       </c>
       <c r="O6">
-        <v>0.06071456844881905</v>
+        <v>0.009321466352170649</v>
       </c>
       <c r="P6">
-        <v>0.06071456844881905</v>
+        <v>0.009321466352170649</v>
       </c>
       <c r="Q6">
-        <v>177.3196673695366</v>
+        <v>25.81349843836999</v>
       </c>
       <c r="R6">
-        <v>177.3196673695366</v>
+        <v>232.32148594533</v>
       </c>
       <c r="S6">
-        <v>0.03760337678157333</v>
+        <v>0.003980879308496743</v>
       </c>
       <c r="T6">
-        <v>0.03760337678157333</v>
+        <v>0.003980879308496743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,55 +844,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>159.795702666781</v>
+        <v>141.70809</v>
       </c>
       <c r="H7">
-        <v>159.795702666781</v>
+        <v>425.12427</v>
       </c>
       <c r="I7">
-        <v>0.6193468510489718</v>
+        <v>0.4270657810795758</v>
       </c>
       <c r="J7">
-        <v>0.6193468510489718</v>
+        <v>0.4270657810795759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.23817416087097</v>
+        <v>12.217072</v>
       </c>
       <c r="N7">
-        <v>5.23817416087097</v>
+        <v>36.65121600000001</v>
       </c>
       <c r="O7">
-        <v>0.2866031994264571</v>
+        <v>0.625171464429811</v>
       </c>
       <c r="P7">
-        <v>0.2866031994264571</v>
+        <v>0.6251714644298109</v>
       </c>
       <c r="Q7">
-        <v>837.0377207273526</v>
+        <v>1731.25793851248</v>
       </c>
       <c r="R7">
-        <v>837.0377207273526</v>
+        <v>15581.32144661232</v>
       </c>
       <c r="S7">
-        <v>0.1775067890653367</v>
+        <v>0.2669893397653795</v>
       </c>
       <c r="T7">
-        <v>0.1775067890653367</v>
+        <v>0.2669893397653795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.795702666781</v>
+        <v>171.783722</v>
       </c>
       <c r="H8">
-        <v>159.795702666781</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I8">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J8">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.334090319000011</v>
+        <v>1.162471666666667</v>
       </c>
       <c r="N8">
-        <v>0.334090319000011</v>
+        <v>3.487415</v>
       </c>
       <c r="O8">
-        <v>0.01827952858804678</v>
+        <v>0.05948594836865682</v>
       </c>
       <c r="P8">
-        <v>0.01827952858804678</v>
+        <v>0.05948594836865682</v>
       </c>
       <c r="Q8">
-        <v>53.38619727877578</v>
+        <v>199.6937096195433</v>
       </c>
       <c r="R8">
-        <v>53.38619727877578</v>
+        <v>1797.24338657589</v>
       </c>
       <c r="S8">
-        <v>0.01132136846966643</v>
+        <v>0.03079615723375753</v>
       </c>
       <c r="T8">
-        <v>0.01132136846966643</v>
+        <v>0.03079615723375754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,60 +968,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.795702666781</v>
+        <v>171.783722</v>
       </c>
       <c r="H9">
-        <v>159.795702666781</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I9">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J9">
-        <v>0.6193468510489718</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.5948176988346</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N9">
-        <v>11.5948176988346</v>
+        <v>16.081472</v>
       </c>
       <c r="O9">
-        <v>0.634402703536677</v>
+        <v>0.2743067897236206</v>
       </c>
       <c r="P9">
-        <v>0.634402703536677</v>
+        <v>0.2743067897236206</v>
       </c>
       <c r="Q9">
-        <v>1852.802041478504</v>
+        <v>920.8450384662614</v>
       </c>
       <c r="R9">
-        <v>1852.802041478504</v>
+        <v>8287.605346196351</v>
       </c>
       <c r="S9">
-        <v>0.3929153167323953</v>
+        <v>0.1420099243314229</v>
       </c>
       <c r="T9">
-        <v>0.3929153167323953</v>
+        <v>0.1420099243314229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1030,60 +1030,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.040021968849</v>
+        <v>171.783722</v>
       </c>
       <c r="H10">
-        <v>18.040021968849</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I10">
-        <v>0.06992072135106045</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J10">
-        <v>0.06992072135106045</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.10966480581332</v>
+        <v>0.4960333333333334</v>
       </c>
       <c r="N10">
-        <v>1.10966480581332</v>
+        <v>1.4881</v>
       </c>
       <c r="O10">
-        <v>0.06071456844881905</v>
+        <v>0.02538299564789342</v>
       </c>
       <c r="P10">
-        <v>0.06071456844881905</v>
+        <v>0.02538299564789342</v>
       </c>
       <c r="Q10">
-        <v>20.01837747493085</v>
+        <v>85.21045223606667</v>
       </c>
       <c r="R10">
-        <v>20.01837747493085</v>
+        <v>766.8940701246</v>
       </c>
       <c r="S10">
-        <v>0.004245206422459764</v>
+        <v>0.01314089707693366</v>
       </c>
       <c r="T10">
-        <v>0.004245206422459764</v>
+        <v>0.01314089707693366</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1092,122 +1092,122 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.040021968849</v>
+        <v>171.783722</v>
       </c>
       <c r="H11">
-        <v>18.040021968849</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I11">
-        <v>0.06992072135106045</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J11">
-        <v>0.06992072135106045</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>5.23817416087097</v>
+        <v>0.1237266666666667</v>
       </c>
       <c r="N11">
-        <v>5.23817416087097</v>
+        <v>0.37118</v>
       </c>
       <c r="O11">
-        <v>0.2866031994264571</v>
+        <v>0.006331335477847643</v>
       </c>
       <c r="P11">
-        <v>0.2866031994264571</v>
+        <v>0.006331335477847643</v>
       </c>
       <c r="Q11">
-        <v>94.49677693876947</v>
+        <v>21.25422731065333</v>
       </c>
       <c r="R11">
-        <v>94.49677693876947</v>
+        <v>191.28804579588</v>
       </c>
       <c r="S11">
-        <v>0.02003950244541972</v>
+        <v>0.003277762366115338</v>
       </c>
       <c r="T11">
-        <v>0.02003950244541972</v>
+        <v>0.003277762366115338</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.040021968849</v>
+        <v>171.783722</v>
       </c>
       <c r="H12">
-        <v>18.040021968849</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I12">
-        <v>0.06992072135106045</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J12">
-        <v>0.06992072135106045</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.334090319000011</v>
+        <v>0.1821596666666666</v>
       </c>
       <c r="N12">
-        <v>0.334090319000011</v>
+        <v>0.5464789999999999</v>
       </c>
       <c r="O12">
-        <v>0.01827952858804678</v>
+        <v>0.009321466352170649</v>
       </c>
       <c r="P12">
-        <v>0.01827952858804678</v>
+        <v>0.009321466352170649</v>
       </c>
       <c r="Q12">
-        <v>6.026996694339969</v>
+        <v>31.29206553827932</v>
       </c>
       <c r="R12">
-        <v>6.026996694339969</v>
+        <v>281.6285898445139</v>
       </c>
       <c r="S12">
-        <v>0.001278117824833562</v>
+        <v>0.004825767282914875</v>
       </c>
       <c r="T12">
-        <v>0.001278117824833562</v>
+        <v>0.004825767282914876</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1219,52 +1219,424 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.040021968849</v>
+        <v>171.783722</v>
       </c>
       <c r="H13">
-        <v>18.040021968849</v>
+        <v>515.3511659999999</v>
       </c>
       <c r="I13">
-        <v>0.06992072135106045</v>
+        <v>0.5177047366363254</v>
       </c>
       <c r="J13">
-        <v>0.06992072135106045</v>
+        <v>0.5177047366363255</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.5948176988346</v>
+        <v>12.217072</v>
       </c>
       <c r="N13">
-        <v>11.5948176988346</v>
+        <v>36.65121600000001</v>
       </c>
       <c r="O13">
-        <v>0.634402703536677</v>
+        <v>0.625171464429811</v>
       </c>
       <c r="P13">
-        <v>0.634402703536677</v>
+        <v>0.6251714644298109</v>
       </c>
       <c r="Q13">
-        <v>209.1707660117754</v>
+        <v>2098.694100101984</v>
       </c>
       <c r="R13">
-        <v>209.1707660117754</v>
+        <v>18888.24690091786</v>
       </c>
       <c r="S13">
-        <v>0.04435789465834741</v>
+        <v>0.3236542283451812</v>
       </c>
       <c r="T13">
-        <v>0.04435789465834741</v>
+        <v>0.3236542283451812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>18.32613333333333</v>
+      </c>
+      <c r="H14">
+        <v>54.9784</v>
+      </c>
+      <c r="I14">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="J14">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.162471666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.487415</v>
+      </c>
+      <c r="O14">
+        <v>0.05948594836865682</v>
+      </c>
+      <c r="P14">
+        <v>0.05948594836865682</v>
+      </c>
+      <c r="Q14">
+        <v>21.30361075955556</v>
+      </c>
+      <c r="R14">
+        <v>191.732496836</v>
+      </c>
+      <c r="S14">
+        <v>0.003285378131579536</v>
+      </c>
+      <c r="T14">
+        <v>0.003285378131579536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>18.32613333333333</v>
+      </c>
+      <c r="H15">
+        <v>54.9784</v>
+      </c>
+      <c r="I15">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="J15">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.360490666666667</v>
+      </c>
+      <c r="N15">
+        <v>16.081472</v>
+      </c>
+      <c r="O15">
+        <v>0.2743067897236206</v>
+      </c>
+      <c r="P15">
+        <v>0.2743067897236206</v>
+      </c>
+      <c r="Q15">
+        <v>98.23706668942224</v>
+      </c>
+      <c r="R15">
+        <v>884.1336002048001</v>
+      </c>
+      <c r="S15">
+        <v>0.01514982198344867</v>
+      </c>
+      <c r="T15">
+        <v>0.01514982198344867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>18.32613333333333</v>
+      </c>
+      <c r="H16">
+        <v>54.9784</v>
+      </c>
+      <c r="I16">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="J16">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4960333333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.4881</v>
+      </c>
+      <c r="O16">
+        <v>0.02538299564789342</v>
+      </c>
+      <c r="P16">
+        <v>0.02538299564789342</v>
+      </c>
+      <c r="Q16">
+        <v>9.090373004444446</v>
+      </c>
+      <c r="R16">
+        <v>81.81335704000001</v>
+      </c>
+      <c r="S16">
+        <v>0.001401889708452682</v>
+      </c>
+      <c r="T16">
+        <v>0.001401889708452682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>18.32613333333333</v>
+      </c>
+      <c r="H17">
+        <v>54.9784</v>
+      </c>
+      <c r="I17">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="J17">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1237266666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.37118</v>
+      </c>
+      <c r="O17">
+        <v>0.006331335477847643</v>
+      </c>
+      <c r="P17">
+        <v>0.006331335477847643</v>
+      </c>
+      <c r="Q17">
+        <v>2.267431390222222</v>
+      </c>
+      <c r="R17">
+        <v>20.406882512</v>
+      </c>
+      <c r="S17">
+        <v>0.0003496763806084714</v>
+      </c>
+      <c r="T17">
+        <v>0.0003496763806084714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>18.32613333333333</v>
+      </c>
+      <c r="H18">
+        <v>54.9784</v>
+      </c>
+      <c r="I18">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="J18">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1821596666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.5464789999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.009321466352170649</v>
+      </c>
+      <c r="P18">
+        <v>0.009321466352170649</v>
+      </c>
+      <c r="Q18">
+        <v>3.338282339288889</v>
+      </c>
+      <c r="R18">
+        <v>30.0445410536</v>
+      </c>
+      <c r="S18">
+        <v>0.0005148197607590301</v>
+      </c>
+      <c r="T18">
+        <v>0.0005148197607590301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>18.32613333333333</v>
+      </c>
+      <c r="H19">
+        <v>54.9784</v>
+      </c>
+      <c r="I19">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="J19">
+        <v>0.05522948228409861</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.217072</v>
+      </c>
+      <c r="N19">
+        <v>36.65121600000001</v>
+      </c>
+      <c r="O19">
+        <v>0.625171464429811</v>
+      </c>
+      <c r="P19">
+        <v>0.6251714644298109</v>
+      </c>
+      <c r="Q19">
+        <v>223.8916904149334</v>
+      </c>
+      <c r="R19">
+        <v>2015.0252137344</v>
+      </c>
+      <c r="S19">
+        <v>0.03452789631925023</v>
+      </c>
+      <c r="T19">
+        <v>0.03452789631925023</v>
       </c>
     </row>
   </sheetData>
